--- a/public/static/docs/GoodsCateCode.xlsx
+++ b/public/static/docs/GoodsCateCode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ap5\htdocs\arcfun\public\static\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,39 +21,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>A02233B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A02333B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A02433B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A02533B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A02633B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A02733B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A02833B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A02933B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A03033B2DDD9014000000000</t>
-  </si>
-  <si>
-    <t>A03133B2DDD9014000000000</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>条形码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A02233B2DDD901400000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02233B2DDD9014000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02233B2DDD9014000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02233B2DDD9014000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02233B2DDD9014000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02233B2DDD9014000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02233B2DDD9014000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00ml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00ml</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +137,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -98,8 +171,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,75 +482,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="51.375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
